--- a/Business_Case_.xlsx
+++ b/Business_Case_.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Google Drive\DS4B\CursoMachineLearningPython\02_BUSINESS_ANALYTICS\07_CASOS\03_OPTIMIZACION ECOMMERCE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315A1E6-C5AB-45B9-9AD8-ADB5A7DC46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="21330" windowHeight="15120" xr2:uid="{543A5132-A937-4923-9444-B6C9D5B4AD5C}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="21336" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla BC - DS4B" sheetId="1" r:id="rId1"/>
     <sheet name="ASUNCIONES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>Incremento total de ingresos</t>
   </si>
@@ -144,15 +138,6 @@
   </si>
   <si>
     <t>NOTAS</t>
-  </si>
-  <si>
-    <t>Solo introducir datos en las celdillas que estén en gris claro</t>
-  </si>
-  <si>
-    <t>Los porcetajes introducirlos en base 100 y sin símbolo. Ej un 40% se pondría 40</t>
-  </si>
-  <si>
-    <t>Las palancas de reducción de costes las tomaremos siempre en positivo, es decir como ahorros. Ej un valor de 10000€ en la palanca de costes significa ahorrar 10000 euros</t>
   </si>
   <si>
     <t>Materiales</t>
@@ -224,12 +209,15 @@
     <t>9. El 90% de los clientes sólo hace una compra
 10. Crear una newsletter periódica con el nuevo recomendador para incrementar la frecuencia de visita
 11. Campañas promocionales sobre los segmentos top de la segmentación RFM</t>
+  </si>
+  <si>
+    <t>Las palancas de reducción de costes se tomarán siempre en positivo, es decir como ahorros. Ej un valor de 10000€ en la palanca de costes significa ahorrar 10000 euros.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +520,7 @@
   <cellStyles count="5">
     <cellStyle name="20% - Énfasis4" xfId="3" builtinId="42"/>
     <cellStyle name="20% - Énfasis5" xfId="4" builtinId="46"/>
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -838,57 +826,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B32C15-F687-4727-A173-31C3EEE9DF28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="76.140625" customWidth="1"/>
-    <col min="3" max="14" width="11.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="17" max="27" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="11.42578125" collapsed="1"/>
-    <col min="29" max="40" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="11.42578125" collapsed="1"/>
-    <col min="42" max="42" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.109375" customWidth="1"/>
+    <col min="3" max="14" width="11.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.44140625" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="17" max="27" width="11.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="11.44140625" collapsed="1"/>
+    <col min="29" max="40" width="11.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="11.44140625" collapsed="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1004,13 +982,13 @@
         <v>31</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AP8" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1153,7 @@
         <v>249300</v>
       </c>
     </row>
-    <row r="10" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1340,9 +1318,9 @@
         <v>831000</v>
       </c>
     </row>
-    <row r="11" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12">
         <f>+C13-C12</f>
@@ -1502,7 +1480,7 @@
       </c>
       <c r="AP11" s="30"/>
     </row>
-    <row r="12" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1558,7 @@
       </c>
       <c r="AP12" s="30"/>
     </row>
-    <row r="13" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1742,7 +1720,7 @@
       </c>
       <c r="AP13" s="30"/>
     </row>
-    <row r="14" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1811,9 +1789,9 @@
       <c r="AO14" s="14"/>
       <c r="AP14" s="30"/>
     </row>
-    <row r="15" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12">
         <f>+C17-C16</f>
@@ -1973,7 +1951,7 @@
       </c>
       <c r="AP15" s="30"/>
     </row>
-    <row r="16" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2029,7 @@
       </c>
       <c r="AP16" s="30"/>
     </row>
-    <row r="17" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2191,7 @@
       </c>
       <c r="AP17" s="30"/>
     </row>
-    <row r="18" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2282,9 +2260,9 @@
       <c r="AO18" s="14"/>
       <c r="AP18" s="30"/>
     </row>
-    <row r="19" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="12">
         <f>+C21-C20</f>
@@ -2444,7 +2422,7 @@
       </c>
       <c r="AP19" s="30"/>
     </row>
-    <row r="20" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2500,7 @@
       </c>
       <c r="AP20" s="30"/>
     </row>
-    <row r="21" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2662,7 @@
       </c>
       <c r="AP21" s="30"/>
     </row>
-    <row r="22" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2731,7 @@
       <c r="AO22" s="14"/>
       <c r="AP22" s="30"/>
     </row>
-    <row r="23" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2918,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3058,7 @@
       </c>
       <c r="AP24" s="30"/>
     </row>
-    <row r="25" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
@@ -3134,7 +3112,7 @@
       </c>
       <c r="AP25" s="30"/>
     </row>
-    <row r="26" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3274,7 @@
       </c>
       <c r="AP26" s="30"/>
     </row>
-    <row r="27" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
@@ -3341,7 +3319,7 @@
       <c r="AO27" s="14"/>
       <c r="AP27" s="30"/>
     </row>
-    <row r="28" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
@@ -3503,7 +3481,7 @@
       </c>
       <c r="AP28" s="30"/>
     </row>
-    <row r="29" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
@@ -3557,7 +3535,7 @@
       </c>
       <c r="AP29" s="30"/>
     </row>
-    <row r="30" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
@@ -3719,7 +3697,7 @@
       </c>
       <c r="AP30" s="30"/>
     </row>
-    <row r="31" spans="2:42" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42" ht="15" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3742,7 @@
       <c r="AO31" s="14"/>
       <c r="AP31" s="30"/>
     </row>
-    <row r="32" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -3926,7 +3904,7 @@
       </c>
       <c r="AP32" s="30"/>
     </row>
-    <row r="33" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
@@ -3980,7 +3958,7 @@
       </c>
       <c r="AP33" s="30"/>
     </row>
-    <row r="34" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
@@ -4142,7 +4120,7 @@
       </c>
       <c r="AP34" s="30"/>
     </row>
-    <row r="35" spans="2:42" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:42" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
@@ -4187,7 +4165,7 @@
       <c r="AO35" s="14"/>
       <c r="AP35" s="30"/>
     </row>
-    <row r="36" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4330,7 @@
         <v>831000</v>
       </c>
     </row>
-    <row r="37" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
@@ -4517,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
@@ -4682,7 +4660,7 @@
         <v>249300</v>
       </c>
     </row>
-    <row r="39" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +4729,7 @@
       <c r="AO39" s="14"/>
       <c r="AP39" s="30"/>
     </row>
-    <row r="40" spans="2:42" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:42" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
@@ -4916,7 +4894,7 @@
         <v>249300</v>
       </c>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -5081,9 +5059,9 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="42" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
@@ -5138,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>16</v>
       </c>
@@ -5195,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>17</v>
       </c>
@@ -5252,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:42" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>18</v>
       </c>
@@ -5327,9 +5305,9 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="46" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:42" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46" s="15">
         <v>20000</v>
@@ -5676,79 +5654,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F638AAE-B702-4043-9DFE-623C6A1CBD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
